--- a/Matriz de requisitos.xlsx
+++ b/Matriz de requisitos.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>Macroprocesos</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>Debe estar logueados para ver la pagina</t>
+  </si>
+  <si>
+    <t>Se ve una pequeña animacion y una lista de planetas, para que el usuario elija cual quiere ver.</t>
   </si>
 </sst>
 </file>
@@ -308,13 +311,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -325,12 +321,33 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -340,20 +357,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,7 +578,7 @@
   <dimension ref="A3:N97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -591,128 +594,132 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:14" ht="12.75">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="24"/>
+      <c r="E3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="9" t="s">
+      <c r="G3" s="24"/>
+      <c r="H3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="20"/>
+      <c r="I3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="12.75">
-      <c r="A4" s="11"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="12" t="s">
+      <c r="A4" s="27"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="12" t="s">
+      <c r="E4" s="26"/>
+      <c r="F4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="13" t="s">
+      <c r="E5" s="12"/>
+      <c r="F5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A6" s="23"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="13" t="s">
+      <c r="A6" s="29"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="18" t="s">
+      <c r="E6" s="12"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19" t="s">
+      <c r="H6" s="16"/>
+      <c r="I6" s="16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A7" s="23"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
     </row>
     <row r="8" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A8" s="24"/>
-      <c r="B8" s="25" t="s">
+      <c r="A8" s="30"/>
+      <c r="B8" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="29" t="s">
+      <c r="E8" s="12"/>
+      <c r="F8" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="30" t="s">
+      <c r="G8" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="17"/>
+      <c r="H8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="9" spans="1:14" ht="12.75" customHeight="1">
       <c r="B9" s="4"/>
@@ -982,14 +989,14 @@
     <row r="97" ht="12.75"/>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A5:A8"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A5:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
